--- a/VersionRecords/Version 5.1.7 20161213/版本Bug和特性计划及评审表v5.1.7.xlsx
+++ b/VersionRecords/Version 5.1.7 20161213/版本Bug和特性计划及评审表v5.1.7.xlsx
@@ -5,28 +5,28 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mogoDoc\Mogo_Doc\VersionRecords\Version 5.1.7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\mogo_doc\Mogo_Doc\VersionRecords\Version 5.1.7 20161213\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
-    <sheet name="版本5.1.7 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
-    <sheet name="定时器" sheetId="10" r:id="rId2"/>
-    <sheet name="上线执行顺序" sheetId="8" r:id="rId3"/>
-    <sheet name="配置文件（测试环境）" sheetId="9" r:id="rId4"/>
-    <sheet name="配置文件（预发布环境）" sheetId="7" r:id="rId5"/>
-    <sheet name="配置文件（生产环境）" sheetId="4" r:id="rId6"/>
-    <sheet name="配置文件（公测环境）" sheetId="6" r:id="rId7"/>
-    <sheet name="数据修复" sheetId="2" r:id="rId8"/>
+    <sheet name="01 版本5.1.7 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
+    <sheet name="02 定时器" sheetId="10" r:id="rId2"/>
+    <sheet name="03 上线执行顺序" sheetId="8" r:id="rId3"/>
+    <sheet name="041 配置文件（测试环境）" sheetId="9" r:id="rId4"/>
+    <sheet name="042 配置文件（预发布环境）" sheetId="7" r:id="rId5"/>
+    <sheet name="043 配置文件（生产环境）" sheetId="4" r:id="rId6"/>
+    <sheet name="044 配置文件（公测环境）" sheetId="6" r:id="rId7"/>
+    <sheet name="05 数据修复" sheetId="2" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.1.7 新特性|Fix Bug'!$A$1:$U$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01 版本5.1.7 新特性|Fix Bug'!$A$1:$U$20</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="4" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="6" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="4" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -1812,7 +1812,7 @@
   <dimension ref="A1:V170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8504,7 +8504,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
